--- a/data/trans_orig/P6708-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P6708-Edad-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>13386</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>6521</v>
+        <v>7242</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>22249</v>
+        <v>22026</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1615641143117592</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.07870968416800218</v>
+        <v>0.08740774554070251</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2685453681144623</v>
+        <v>0.2658453160720313</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>8</v>
@@ -764,19 +764,19 @@
         <v>7974</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>3850</v>
+        <v>3456</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>14737</v>
+        <v>14386</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.09284481084399678</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04483097107503525</v>
+        <v>0.04024285413736976</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1715845514626137</v>
+        <v>0.1675052745047498</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>19</v>
@@ -785,19 +785,19 @@
         <v>21360</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>13833</v>
+        <v>13844</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>32940</v>
+        <v>33130</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1265864526523995</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.08197815207421021</v>
+        <v>0.08204531723128547</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.195214472762432</v>
+        <v>0.1963410011523939</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>12684</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>6813</v>
+        <v>6495</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>22042</v>
+        <v>21482</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1530995051719379</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.08222683219419791</v>
+        <v>0.07839228804253552</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2660489418261826</v>
+        <v>0.2592804157993644</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>6</v>
@@ -835,19 +835,19 @@
         <v>5909</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>2753</v>
+        <v>2827</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>11857</v>
+        <v>11620</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.068799263822794</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.03205078146858604</v>
+        <v>0.03291353937057782</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1380523933089028</v>
+        <v>0.1352924355716872</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>16</v>
@@ -856,19 +856,19 @@
         <v>18593</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>11405</v>
+        <v>11585</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>29443</v>
+        <v>29128</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1101912512910472</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.06758970401319465</v>
+        <v>0.0686587866987016</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1744915551992821</v>
+        <v>0.1726210377488854</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>18316</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>12101</v>
+        <v>11532</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>26939</v>
+        <v>27270</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2210674896775227</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1460540856152567</v>
+        <v>0.1391880027218926</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3251492985642569</v>
+        <v>0.3291488405330532</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>17</v>
@@ -906,19 +906,19 @@
         <v>16890</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>10671</v>
+        <v>10872</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>24437</v>
+        <v>25249</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1966572091396926</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1242510874426843</v>
+        <v>0.1265903769234473</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2845293428168275</v>
+        <v>0.2939788086135272</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>36</v>
@@ -927,19 +927,19 @@
         <v>35206</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>26233</v>
+        <v>25423</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>47080</v>
+        <v>45911</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2086428216355538</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1554686589866508</v>
+        <v>0.150669157394646</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2790117882128482</v>
+        <v>0.2720845181083105</v>
       </c>
     </row>
     <row r="7">
@@ -956,19 +956,19 @@
         <v>14642</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>8447</v>
+        <v>8761</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>21975</v>
+        <v>23073</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1767212442200368</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1019494330458901</v>
+        <v>0.1057427598004278</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2652404976826088</v>
+        <v>0.2784934027754097</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>25</v>
@@ -977,19 +977,19 @@
         <v>25705</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>17574</v>
+        <v>18648</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>35225</v>
+        <v>35107</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2992882419289458</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2046159049122517</v>
+        <v>0.2171244262420753</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4101345637416956</v>
+        <v>0.4087579633445365</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>40</v>
@@ -998,19 +998,19 @@
         <v>40346</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>30494</v>
+        <v>29976</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>50914</v>
+        <v>52792</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2391070188150441</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1807185267573156</v>
+        <v>0.1776467539561286</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3017386922587444</v>
+        <v>0.3128680523505116</v>
       </c>
     </row>
     <row r="8">
@@ -1027,19 +1027,19 @@
         <v>23824</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>16271</v>
+        <v>16355</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>33699</v>
+        <v>32748</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2875476466187435</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1963856840045242</v>
+        <v>0.1974079400800962</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4067377754480194</v>
+        <v>0.3952585967624868</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>28</v>
@@ -1048,19 +1048,19 @@
         <v>29408</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>21227</v>
+        <v>20525</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>39453</v>
+        <v>38429</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3424104742645709</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2471478328791878</v>
+        <v>0.2389833591311716</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4593660404601824</v>
+        <v>0.4474470988805619</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>51</v>
@@ -1069,19 +1069,19 @@
         <v>53232</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>42282</v>
+        <v>42027</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>65873</v>
+        <v>66614</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3154724556059554</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2505764835242467</v>
+        <v>0.2490669275212098</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3903894624541626</v>
+        <v>0.3947813532911055</v>
       </c>
     </row>
     <row r="9">
@@ -1173,19 +1173,19 @@
         <v>35653</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>24315</v>
+        <v>25002</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>48901</v>
+        <v>50736</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0929260803947812</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.06337349737526303</v>
+        <v>0.06516515167784483</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1274562233470875</v>
+        <v>0.1322372294785185</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>31</v>
@@ -1194,19 +1194,19 @@
         <v>33008</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>23147</v>
+        <v>23125</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>45965</v>
+        <v>44731</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1196176306907093</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.08388210064024559</v>
+        <v>0.08380185678299229</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1665729339167034</v>
+        <v>0.1621020047163621</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>63</v>
@@ -1215,19 +1215,19 @@
         <v>68661</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>52369</v>
+        <v>54852</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>87267</v>
+        <v>86198</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1040922328868099</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0793933149313278</v>
+        <v>0.08315813940446634</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1323000335965503</v>
+        <v>0.1306789453426269</v>
       </c>
     </row>
     <row r="11">
@@ -1244,19 +1244,19 @@
         <v>28108</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>19392</v>
+        <v>19217</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>39814</v>
+        <v>40644</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.07325982819261849</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.05054330148123917</v>
+        <v>0.05008731431435145</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1037701836471438</v>
+        <v>0.1059338879783641</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>24</v>
@@ -1265,19 +1265,19 @@
         <v>26484</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>17529</v>
+        <v>17437</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>37097</v>
+        <v>37831</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.09597509974961463</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.06352457784076083</v>
+        <v>0.06319138015695694</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1344369747947596</v>
+        <v>0.1370981329829716</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>50</v>
@@ -1286,19 +1286,19 @@
         <v>54591</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>41343</v>
+        <v>40405</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>72901</v>
+        <v>71558</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.0827625428454259</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.06267707210858871</v>
+        <v>0.06125556084020116</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1105202043448964</v>
+        <v>0.1084842958101176</v>
       </c>
     </row>
     <row r="12">
@@ -1315,19 +1315,19 @@
         <v>93229</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>76910</v>
+        <v>76537</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>110945</v>
+        <v>111811</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2429908358962784</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2004581312179914</v>
+        <v>0.1994860201645547</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2891652625817835</v>
+        <v>0.2914236444032997</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>52</v>
@@ -1336,19 +1336,19 @@
         <v>56406</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>43528</v>
+        <v>42441</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>71731</v>
+        <v>70117</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2044119604527576</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1577437154058263</v>
+        <v>0.153804182196224</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2599466451862856</v>
+        <v>0.2541000987979335</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>143</v>
@@ -1357,19 +1357,19 @@
         <v>149635</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>128703</v>
+        <v>127031</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>172531</v>
+        <v>170731</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2268517356418037</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1951186624717671</v>
+        <v>0.1925834275563285</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2615624437624869</v>
+        <v>0.2588342052939601</v>
       </c>
     </row>
     <row r="13">
@@ -1386,19 +1386,19 @@
         <v>90805</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>76142</v>
+        <v>74459</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>109173</v>
+        <v>108123</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2366735383491652</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1984562411376402</v>
+        <v>0.1940700854659699</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2845478386261763</v>
+        <v>0.2818113384593975</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>65</v>
@@ -1407,19 +1407,19 @@
         <v>68761</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>55142</v>
+        <v>54745</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>84461</v>
+        <v>83705</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2491839129873673</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1998288741138279</v>
+        <v>0.1983909066780104</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3060804647476687</v>
+        <v>0.3033388926310179</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>157</v>
@@ -1428,19 +1428,19 @@
         <v>159566</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>135919</v>
+        <v>138406</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>182626</v>
+        <v>183343</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.241907132853561</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2060579796323201</v>
+        <v>0.2098288754934098</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2768670342067037</v>
+        <v>0.2779552917816983</v>
       </c>
     </row>
     <row r="14">
@@ -1457,19 +1457,19 @@
         <v>135877</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>114834</v>
+        <v>118179</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>154941</v>
+        <v>157067</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3541497171671567</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2993012529734256</v>
+        <v>0.3080202433439171</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4038366172967646</v>
+        <v>0.4093785799911196</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>85</v>
@@ -1478,19 +1478,19 @@
         <v>91285</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>76726</v>
+        <v>75447</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>108726</v>
+        <v>106289</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3308113961195512</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2780494950084436</v>
+        <v>0.2734131914376104</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3940153758218387</v>
+        <v>0.3851832473831998</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>213</v>
@@ -1499,19 +1499,19 @@
         <v>227162</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>202108</v>
+        <v>200374</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>252255</v>
+        <v>251974</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3443863557723995</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3064036327531326</v>
+        <v>0.3037742230804639</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3824283835830288</v>
+        <v>0.3820018735036879</v>
       </c>
     </row>
     <row r="15">
@@ -1603,19 +1603,19 @@
         <v>24334</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>16282</v>
+        <v>15550</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>36622</v>
+        <v>35706</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.05762685384218392</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03855829028885271</v>
+        <v>0.03682416178185258</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.08672629865403364</v>
+        <v>0.08455786596087554</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>22</v>
@@ -1624,19 +1624,19 @@
         <v>22624</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>15313</v>
+        <v>14599</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>33842</v>
+        <v>33397</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.07915688331070256</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05357545634365755</v>
+        <v>0.05107821872144806</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1184044240023004</v>
+        <v>0.1168464020854559</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>44</v>
@@ -1645,19 +1645,19 @@
         <v>46958</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>34715</v>
+        <v>34427</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>61997</v>
+        <v>62613</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0663174481701794</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04902651565376009</v>
+        <v>0.04861966054986425</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.08755628022002192</v>
+        <v>0.08842663651546581</v>
       </c>
     </row>
     <row r="17">
@@ -1674,19 +1674,19 @@
         <v>36043</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>25145</v>
+        <v>25279</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>48522</v>
+        <v>50289</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.08535599680165952</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.05954808043037288</v>
+        <v>0.05986481562080768</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1149088578190238</v>
+        <v>0.1190938332166797</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>26</v>
@@ -1695,19 +1695,19 @@
         <v>25851</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>17631</v>
+        <v>17845</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>37669</v>
+        <v>36338</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.0904449343595926</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.06168781144165218</v>
+        <v>0.06243593334228539</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1317931268785427</v>
+        <v>0.1271365270209136</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>59</v>
@@ -1716,19 +1716,19 @@
         <v>61894</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>47517</v>
+        <v>47864</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>78886</v>
+        <v>78832</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.08741014595836011</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.06710691112026392</v>
+        <v>0.06759628373528398</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1114072960783301</v>
+        <v>0.1113310713795021</v>
       </c>
     </row>
     <row r="18">
@@ -1745,19 +1745,19 @@
         <v>83999</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>68781</v>
+        <v>68527</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>101653</v>
+        <v>100383</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1989251044445808</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.16288431849689</v>
+        <v>0.1622828696492664</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2407332626875252</v>
+        <v>0.237724770826426</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>68</v>
@@ -1766,19 +1766,19 @@
         <v>72128</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>57544</v>
+        <v>58130</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>89491</v>
+        <v>87445</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2523570213225998</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2013295942222864</v>
+        <v>0.2033810263561978</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3131064146122693</v>
+        <v>0.3059471266027778</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>153</v>
@@ -1787,19 +1787,19 @@
         <v>156127</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>134470</v>
+        <v>134437</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>180474</v>
+        <v>178470</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2204928925627077</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1899073080655545</v>
+        <v>0.1898605441301804</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.254876385556589</v>
+        <v>0.2520469766049983</v>
       </c>
     </row>
     <row r="19">
@@ -1816,19 +1816,19 @@
         <v>118247</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>100618</v>
+        <v>99917</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>138219</v>
+        <v>137687</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2800300689116051</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2382811671747424</v>
+        <v>0.2366202705091792</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3273268094637212</v>
+        <v>0.3260669897223161</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>57</v>
@@ -1837,19 +1837,19 @@
         <v>59101</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>44807</v>
+        <v>47597</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>72369</v>
+        <v>73183</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2067792393007712</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1567662043569857</v>
+        <v>0.1665289858850785</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2532007176412173</v>
+        <v>0.256046112539083</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>171</v>
@@ -1858,19 +1858,19 @@
         <v>177348</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>154161</v>
+        <v>152950</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>201501</v>
+        <v>200372</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2504623785715753</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2177162468609579</v>
+        <v>0.2160048368425157</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.284572406208284</v>
+        <v>0.2829783856095695</v>
       </c>
     </row>
     <row r="20">
@@ -1887,19 +1887,19 @@
         <v>159643</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>140042</v>
+        <v>138727</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>181508</v>
+        <v>179336</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3780619759999707</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3316450464124523</v>
+        <v>0.3285293783404044</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4298435959167977</v>
+        <v>0.4246991714238317</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>100</v>
@@ -1908,19 +1908,19 @@
         <v>106113</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>90409</v>
+        <v>89721</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>123620</v>
+        <v>120935</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3712619217063338</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.316316225815188</v>
+        <v>0.3139110149109954</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4325118799752564</v>
+        <v>0.4231201165775544</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>253</v>
@@ -1929,19 +1929,19 @@
         <v>265756</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>238867</v>
+        <v>240940</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>292226</v>
+        <v>293208</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3753171347371776</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3373430815372278</v>
+        <v>0.3402699518933687</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4127000601867035</v>
+        <v>0.4140868784741361</v>
       </c>
     </row>
     <row r="21">
@@ -2033,19 +2033,19 @@
         <v>24859</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>16260</v>
+        <v>16535</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>36256</v>
+        <v>37429</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.06797491546682904</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.04446283728912052</v>
+        <v>0.04521259564069361</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.09914061542003753</v>
+        <v>0.1023482871917208</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>18</v>
@@ -2054,19 +2054,19 @@
         <v>19840</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>12140</v>
+        <v>12327</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>30072</v>
+        <v>30238</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.08804361973893143</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.05387402194646247</v>
+        <v>0.05470251178015374</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1334514441072694</v>
+        <v>0.1341866140980796</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>41</v>
@@ -2075,19 +2075,19 @@
         <v>44699</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>33373</v>
+        <v>31473</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>60623</v>
+        <v>57962</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.075626247617051</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.05646349639435354</v>
+        <v>0.05324928430218374</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1025685926551845</v>
+        <v>0.09806695967940905</v>
       </c>
     </row>
     <row r="23">
@@ -2104,19 +2104,19 @@
         <v>20360</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>12388</v>
+        <v>12970</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>31412</v>
+        <v>32446</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.055672897885217</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.03387508131376486</v>
+        <v>0.03546662333243671</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.0858931761142827</v>
+        <v>0.08872166901371104</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>14</v>
@@ -2125,19 +2125,19 @@
         <v>16689</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>9482</v>
+        <v>9364</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>26968</v>
+        <v>26900</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.07406043527936075</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.04207874328621644</v>
+        <v>0.04155412082130154</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1196751309796677</v>
+        <v>0.1193760637060602</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>32</v>
@@ -2146,19 +2146,19 @@
         <v>37049</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>26057</v>
+        <v>25774</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>50827</v>
+        <v>50500</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.06268327354872176</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.04408606463649185</v>
+        <v>0.04360740908198271</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.08599461169270825</v>
+        <v>0.08544145864028357</v>
       </c>
     </row>
     <row r="24">
@@ -2175,19 +2175,19 @@
         <v>64207</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>50333</v>
+        <v>50047</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>79401</v>
+        <v>79819</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1755701767871019</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1376315469463157</v>
+        <v>0.1368491078493403</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2171157678807776</v>
+        <v>0.2182608969842557</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>38</v>
@@ -2196,19 +2196,19 @@
         <v>46911</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>34784</v>
+        <v>33829</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>61585</v>
+        <v>60852</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2081793810106131</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1543634435857792</v>
+        <v>0.1501246570312502</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2732969867100615</v>
+        <v>0.2700455739243852</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>97</v>
@@ -2217,19 +2217,19 @@
         <v>111118</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>92966</v>
+        <v>91297</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>135037</v>
+        <v>130866</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1880026611809918</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1572911115807535</v>
+        <v>0.1544670585510037</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2284714975306606</v>
+        <v>0.2214139560590845</v>
       </c>
     </row>
     <row r="25">
@@ -2246,19 +2246,19 @@
         <v>95264</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>78146</v>
+        <v>77574</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>112907</v>
+        <v>114299</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2604944876144035</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.213683963832822</v>
+        <v>0.2121223577565551</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3087365219439274</v>
+        <v>0.3125429546403243</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>45</v>
@@ -2267,19 +2267,19 @@
         <v>51076</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>37775</v>
+        <v>37940</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>64408</v>
+        <v>65726</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2266620733872997</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1676338248750009</v>
+        <v>0.168369649070764</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2858243570722658</v>
+        <v>0.2916736624676221</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>128</v>
@@ -2288,19 +2288,19 @@
         <v>146340</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>124201</v>
+        <v>125795</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>171949</v>
+        <v>169724</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2475956459559855</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2101374055893679</v>
+        <v>0.2128351768568535</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2909236331325606</v>
+        <v>0.2871588413030284</v>
       </c>
     </row>
     <row r="26">
@@ -2317,19 +2317,19 @@
         <v>161016</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>141492</v>
+        <v>140946</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>179507</v>
+        <v>182024</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.4402875222464485</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3869009586744354</v>
+        <v>0.3854067578879668</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4908511236820124</v>
+        <v>0.4977318928619599</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>78</v>
@@ -2338,19 +2338,19 @@
         <v>90824</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>75037</v>
+        <v>75505</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>106550</v>
+        <v>109643</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.4030544905837951</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3329947885177743</v>
+        <v>0.3350711931344633</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4728389812155468</v>
+        <v>0.486565466450086</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>219</v>
@@ -2359,19 +2359,19 @@
         <v>251840</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>226032</v>
+        <v>224244</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>279310</v>
+        <v>277125</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.4260921716972499</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.3824263902559167</v>
+        <v>0.3794019603902184</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.4725686513255397</v>
+        <v>0.4688716545031825</v>
       </c>
     </row>
     <row r="27">
@@ -2463,19 +2463,19 @@
         <v>7969</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>3485</v>
+        <v>3370</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>16406</v>
+        <v>15874</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.05064365463704155</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.02215012529356745</v>
+        <v>0.0214167989592144</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1042622293813378</v>
+        <v>0.1008829315079505</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>6</v>
@@ -2484,19 +2484,19 @@
         <v>6423</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>2271</v>
+        <v>2797</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>12537</v>
+        <v>13104</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.0921678844123142</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.03258937955122388</v>
+        <v>0.04014055223390316</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1798963830934243</v>
+        <v>0.1880228677382326</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>13</v>
@@ -2505,19 +2505,19 @@
         <v>14392</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>7794</v>
+        <v>8797</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>23373</v>
+        <v>24025</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.06338955259009507</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.03432691431698295</v>
+        <v>0.03874663116912806</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1029452079127792</v>
+        <v>0.1058169958521162</v>
       </c>
     </row>
     <row r="29">
@@ -2534,19 +2534,19 @@
         <v>9259</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>4999</v>
+        <v>4757</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>16542</v>
+        <v>16615</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.05884391665253175</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.0317703817382016</v>
+        <v>0.03022976926992574</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.105130541836966</v>
+        <v>0.1055928032653963</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2</v>
@@ -2558,7 +2558,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>7171</v>
+        <v>7934</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.0305407094158053</v>
@@ -2567,7 +2567,7 @@
         <v>0</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1029023130249539</v>
+        <v>0.1138495138320356</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>11</v>
@@ -2576,19 +2576,19 @@
         <v>11388</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>5346</v>
+        <v>5832</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>19996</v>
+        <v>19441</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.05015622290996738</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.02354521981751835</v>
+        <v>0.0256863828206822</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.08807061387174993</v>
+        <v>0.08562964148651955</v>
       </c>
     </row>
     <row r="30">
@@ -2605,19 +2605,19 @@
         <v>27144</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>17911</v>
+        <v>19243</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>38067</v>
+        <v>39250</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1725067823428184</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1138307550918316</v>
+        <v>0.1222908075110345</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2419231959126812</v>
+        <v>0.2494444022678577</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>8</v>
@@ -2626,19 +2626,19 @@
         <v>9233</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>4201</v>
+        <v>4108</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>16880</v>
+        <v>16797</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.13249176550373</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.06027379294128247</v>
+        <v>0.05894722578242289</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2422191253928445</v>
+        <v>0.2410142049137524</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>33</v>
@@ -2647,19 +2647,19 @@
         <v>36377</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>25810</v>
+        <v>25956</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>48140</v>
+        <v>50194</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1602241385952766</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1136816190247767</v>
+        <v>0.1143211471812035</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2120329486945012</v>
+        <v>0.2210793883641957</v>
       </c>
     </row>
     <row r="31">
@@ -2676,19 +2676,19 @@
         <v>28657</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>19333</v>
+        <v>19077</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>39733</v>
+        <v>38511</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1821200730125161</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1228684808033845</v>
+        <v>0.1212401791722165</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2525098844305423</v>
+        <v>0.2447489859584197</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>20</v>
@@ -2697,19 +2697,19 @@
         <v>21173</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>14641</v>
+        <v>14043</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>30402</v>
+        <v>30202</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.3038060978888664</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.2100831987938879</v>
+        <v>0.2014979180273125</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.4362394847922128</v>
+        <v>0.4333743137899469</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>46</v>
@@ -2718,19 +2718,19 @@
         <v>49829</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>38218</v>
+        <v>38094</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>63127</v>
+        <v>65148</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2194717027424503</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1683293209457431</v>
+        <v>0.1677864901666302</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2780425283981218</v>
+        <v>0.2869458804814183</v>
       </c>
     </row>
     <row r="32">
@@ -2747,19 +2747,19 @@
         <v>84322</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>71405</v>
+        <v>70931</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>98517</v>
+        <v>96763</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.5358855733550922</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.4537917166999944</v>
+        <v>0.4507805397852808</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.6260946187540962</v>
+        <v>0.6149512117267893</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>27</v>
@@ -2768,19 +2768,19 @@
         <v>30733</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>22221</v>
+        <v>22255</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>39897</v>
+        <v>39672</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.4409935427792842</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.3188556845752701</v>
+        <v>0.3193371340349655</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.5724910737787869</v>
+        <v>0.5692576667185855</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>107</v>
@@ -2789,19 +2789,19 @@
         <v>115055</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>98456</v>
+        <v>99315</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>129295</v>
+        <v>131491</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.5067583831622107</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.4336464189844937</v>
+        <v>0.4374323501793397</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.5694789921192828</v>
+        <v>0.5791497352329691</v>
       </c>
     </row>
     <row r="33">
@@ -2893,19 +2893,19 @@
         <v>106200</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>87397</v>
+        <v>86607</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>129566</v>
+        <v>129461</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.07522095361761556</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.0619028901438648</v>
+        <v>0.06134331316952366</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.09177055125406466</v>
+        <v>0.09169609662818674</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>85</v>
@@ -2914,19 +2914,19 @@
         <v>89869</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>73826</v>
+        <v>72350</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>109638</v>
+        <v>109644</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.09533394981227525</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.0783149449410992</v>
+        <v>0.07674906949030405</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.1163045972125653</v>
+        <v>0.1163107684416739</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>180</v>
@@ -2935,19 +2935,19 @@
         <v>196070</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>170349</v>
+        <v>171463</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>226347</v>
+        <v>226281</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.08327357661506653</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.07234948719144293</v>
+        <v>0.07282258876421793</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.09613262471602632</v>
+        <v>0.09610484384667578</v>
       </c>
     </row>
     <row r="35">
@@ -2964,19 +2964,19 @@
         <v>106454</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>85869</v>
+        <v>88527</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>128662</v>
+        <v>129913</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.07540071120087653</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.06082050452433265</v>
+        <v>0.062702982633789</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.09113046641747685</v>
+        <v>0.09201612864960805</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>72</v>
@@ -2985,19 +2985,19 @@
         <v>77061</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>61577</v>
+        <v>60263</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>97540</v>
+        <v>95711</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.08174643217928525</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.06532173201304209</v>
+        <v>0.06392710997800555</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1034711640844759</v>
+        <v>0.1015307020790547</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>168</v>
@@ -3006,19 +3006,19 @@
         <v>183515</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>160108</v>
+        <v>158224</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>211738</v>
+        <v>211797</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.07794134205426022</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.06800008971131921</v>
+        <v>0.06719980927360129</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.08992807625678156</v>
+        <v>0.08995306485937722</v>
       </c>
     </row>
     <row r="36">
@@ -3035,19 +3035,19 @@
         <v>286895</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>259848</v>
+        <v>256352</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>316934</v>
+        <v>316722</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2032055423802847</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.184048870366657</v>
+        <v>0.1815722912455053</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2244824102571963</v>
+        <v>0.2243317893349245</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>183</v>
@@ -3056,19 +3056,19 @@
         <v>201569</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>176009</v>
+        <v>175778</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>228145</v>
+        <v>227374</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.2138259129828706</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1867118145863859</v>
+        <v>0.1864663687120892</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2420173455731182</v>
+        <v>0.241199909289925</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>462</v>
@@ -3077,19 +3077,19 @@
         <v>488464</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>448524</v>
+        <v>448400</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>530305</v>
+        <v>530749</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.2074576110292383</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1904944677211192</v>
+        <v>0.1904420082448295</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2252281666701296</v>
+        <v>0.2254167168874897</v>
       </c>
     </row>
     <row r="37">
@@ -3106,19 +3106,19 @@
         <v>347615</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>315201</v>
+        <v>316675</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>383844</v>
+        <v>382787</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.2462130434368883</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.2232548428508132</v>
+        <v>0.2242985261588526</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2718741615156556</v>
+        <v>0.2711257073274976</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>212</v>
@@ -3127,19 +3127,19 @@
         <v>225815</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>200424</v>
+        <v>200741</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>252483</v>
+        <v>255425</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2395462771448153</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.212611158598557</v>
+        <v>0.2129477199828333</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2678360441654634</v>
+        <v>0.2709569704420894</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>542</v>
@@ -3148,19 +3148,19 @@
         <v>573430</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>530805</v>
+        <v>530736</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>615695</v>
+        <v>618159</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.2435438759472414</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.2254402614190791</v>
+        <v>0.2254113459184932</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2614945516840952</v>
+        <v>0.2625410071000623</v>
       </c>
     </row>
     <row r="38">
@@ -3177,19 +3177,19 @@
         <v>564681</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>532222</v>
+        <v>529047</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>607404</v>
+        <v>602755</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.399959749364335</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.3769689428107616</v>
+        <v>0.3747203558403966</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.4302202542700357</v>
+        <v>0.4269271323147212</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>318</v>
@@ -3198,19 +3198,19 @@
         <v>348365</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>320642</v>
+        <v>316269</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>380576</v>
+        <v>378832</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.3695474278807536</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.3401392641281529</v>
+        <v>0.3355005288077719</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.4037179503833256</v>
+        <v>0.4018674011908153</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>843</v>
@@ -3219,19 +3219,19 @@
         <v>913046</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>864428</v>
+        <v>868677</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>963244</v>
+        <v>960570</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.3877835943541936</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.3671351226360036</v>
+        <v>0.3689393572149648</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.4091036470984649</v>
+        <v>0.4079676634478853</v>
       </c>
     </row>
     <row r="39">
@@ -3564,19 +3564,19 @@
         <v>11808</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>6423</v>
+        <v>6228</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>19485</v>
+        <v>18908</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.149264351555559</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.08118966185822905</v>
+        <v>0.07872983841125449</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2463006508379499</v>
+        <v>0.2390144160591152</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>9</v>
@@ -3585,19 +3585,19 @@
         <v>9164</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>4631</v>
+        <v>4965</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>16596</v>
+        <v>16448</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.09976979908689228</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.050416180181589</v>
+        <v>0.0540540672772084</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1806798904389101</v>
+        <v>0.1790601824213165</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>20</v>
@@ -3606,19 +3606,19 @@
         <v>20973</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>13531</v>
+        <v>13455</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>31087</v>
+        <v>32207</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1226721285797169</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.07914511185903915</v>
+        <v>0.0787007792815089</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1818364569214612</v>
+        <v>0.1883835595225006</v>
       </c>
     </row>
     <row r="5">
@@ -3635,19 +3635,19 @@
         <v>14720</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>8457</v>
+        <v>8891</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>23235</v>
+        <v>23301</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1860680159237068</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1069026509124798</v>
+        <v>0.1123943132359077</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2937139625504025</v>
+        <v>0.2945452017071463</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>10</v>
@@ -3656,19 +3656,19 @@
         <v>10022</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>5218</v>
+        <v>5600</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>17469</v>
+        <v>18444</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1091056670505043</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.0568046847001646</v>
+        <v>0.06096707980619452</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1901849508726717</v>
+        <v>0.2007902425075098</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>24</v>
@@ -3677,19 +3677,19 @@
         <v>24742</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>16532</v>
+        <v>16575</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>34241</v>
+        <v>35351</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1447180119353612</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.09669641651190125</v>
+        <v>0.0969481929360565</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2002792334599075</v>
+        <v>0.2067773269474269</v>
       </c>
     </row>
     <row r="6">
@@ -3706,19 +3706,19 @@
         <v>23336</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>15026</v>
+        <v>16094</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>31132</v>
+        <v>32074</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2949890752952286</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1899458886955764</v>
+        <v>0.2034408796402571</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3935327294460032</v>
+        <v>0.4054400688149636</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>28</v>
@@ -3727,19 +3727,19 @@
         <v>28021</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>19505</v>
+        <v>19431</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>37554</v>
+        <v>36847</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3050534144114326</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2123461326524963</v>
+        <v>0.2115438760464343</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4088399675329005</v>
+        <v>0.4011461026627192</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>50</v>
@@ -3748,19 +3748,19 @@
         <v>51357</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>40026</v>
+        <v>38994</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>64700</v>
+        <v>63731</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3003964006781991</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2341215060724873</v>
+        <v>0.2280858280502671</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3784404657913066</v>
+        <v>0.3727723141479151</v>
       </c>
     </row>
     <row r="7">
@@ -3777,19 +3777,19 @@
         <v>19318</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>12937</v>
+        <v>12058</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>29048</v>
+        <v>27744</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2441903428654123</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1635326240431278</v>
+        <v>0.1524200789550537</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.367184497446127</v>
+        <v>0.3507080714735248</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>25</v>
@@ -3798,19 +3798,19 @@
         <v>24500</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>16542</v>
+        <v>16497</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>33012</v>
+        <v>33134</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2667287535333635</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.180083471937052</v>
+        <v>0.1795964522735498</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3593870838405708</v>
+        <v>0.3607179260833502</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>43</v>
@@ -3819,19 +3819,19 @@
         <v>43818</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>32339</v>
+        <v>32527</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>55046</v>
+        <v>55168</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2562996844415925</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1891557724045647</v>
+        <v>0.1902552149000213</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3219745745919245</v>
+        <v>0.3226869512196139</v>
       </c>
     </row>
     <row r="8">
@@ -3848,19 +3848,19 @@
         <v>9927</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>5175</v>
+        <v>5037</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>17575</v>
+        <v>17895</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1254882143600934</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.06542191317853996</v>
+        <v>0.0636695103973391</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2221577043643388</v>
+        <v>0.2262124794844993</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>21</v>
@@ -3869,19 +3869,19 @@
         <v>20148</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>13381</v>
+        <v>13024</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>28537</v>
+        <v>28378</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2193423659178073</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1456743437234197</v>
+        <v>0.1417883276883669</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3106735673680293</v>
+        <v>0.3089446765353323</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>30</v>
@@ -3890,19 +3890,19 @@
         <v>30075</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>20901</v>
+        <v>19862</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>40309</v>
+        <v>40024</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1759137743651304</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1222557993659318</v>
+        <v>0.1161771536252657</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2357770527277746</v>
+        <v>0.234107433712659</v>
       </c>
     </row>
     <row r="9">
@@ -3994,19 +3994,19 @@
         <v>30795</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>20464</v>
+        <v>21224</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>43323</v>
+        <v>45606</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.08947271112692341</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.05945672798037809</v>
+        <v>0.06166521657152937</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.125870676373558</v>
+        <v>0.1325051261075292</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>32</v>
@@ -4015,19 +4015,19 @@
         <v>30721</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>22463</v>
+        <v>21506</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>42085</v>
+        <v>41886</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1122355783774502</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0820682268376903</v>
+        <v>0.07856901590204822</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1537538078362193</v>
+        <v>0.1530269267577024</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>60</v>
@@ -4036,19 +4036,19 @@
         <v>61516</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>47482</v>
+        <v>47115</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>76972</v>
+        <v>75770</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.09955614091894995</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.07684334147012606</v>
+        <v>0.07624952681160062</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.124569660242965</v>
+        <v>0.1226251706561002</v>
       </c>
     </row>
     <row r="11">
@@ -4065,19 +4065,19 @@
         <v>52103</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>40092</v>
+        <v>39107</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>67158</v>
+        <v>66106</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1513822154919687</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1164829247637446</v>
+        <v>0.113621863636118</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1951230383025001</v>
+        <v>0.192064166541626</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>44</v>
@@ -4086,19 +4086,19 @@
         <v>41595</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>31689</v>
+        <v>31871</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>53942</v>
+        <v>54278</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1519629291364651</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1157724108170194</v>
+        <v>0.1164387333632164</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1970745765511007</v>
+        <v>0.1982998301189639</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>94</v>
@@ -4107,19 +4107,19 @@
         <v>93698</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>76968</v>
+        <v>77253</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>111443</v>
+        <v>111654</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1516394583603256</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1245639237597169</v>
+        <v>0.1250240757944037</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1803563050411545</v>
+        <v>0.180697779679389</v>
       </c>
     </row>
     <row r="12">
@@ -4136,19 +4136,19 @@
         <v>105735</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>88976</v>
+        <v>90209</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>123772</v>
+        <v>124504</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3072053140468699</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2585128592864914</v>
+        <v>0.2620944945372794</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.359609026214961</v>
+        <v>0.361735254197494</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>81</v>
@@ -4157,19 +4157,19 @@
         <v>76754</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>63367</v>
+        <v>62557</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>92107</v>
+        <v>91153</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2804149523640547</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2315064715405894</v>
+        <v>0.2285476380599122</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3365047550774752</v>
+        <v>0.3330202754146336</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>180</v>
@@ -4178,19 +4178,19 @@
         <v>182490</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>159276</v>
+        <v>159701</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>206035</v>
+        <v>204918</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2953377962970832</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2577687372488655</v>
+        <v>0.2584573686278784</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3334423453969788</v>
+        <v>0.3316347280718467</v>
       </c>
     </row>
     <row r="13">
@@ -4207,19 +4207,19 @@
         <v>77034</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>61599</v>
+        <v>62916</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>93405</v>
+        <v>93238</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.223814398304638</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1789714399104434</v>
+        <v>0.1827961941763412</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2713809208557645</v>
+        <v>0.2708954462593863</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>70</v>
@@ -4228,19 +4228,19 @@
         <v>66849</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>52934</v>
+        <v>53283</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>81743</v>
+        <v>80352</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2442285843254983</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1933885746229353</v>
+        <v>0.1946649514002128</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2986417526187801</v>
+        <v>0.2935583328506198</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>147</v>
@@ -4249,19 +4249,19 @@
         <v>143883</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>124364</v>
+        <v>125356</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>164485</v>
+        <v>164853</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2328574160069861</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2012689540246618</v>
+        <v>0.2028731653615926</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2661989043184623</v>
+        <v>0.2667952703064436</v>
       </c>
     </row>
     <row r="14">
@@ -4278,19 +4278,19 @@
         <v>78517</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>62769</v>
+        <v>64604</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>93767</v>
+        <v>94938</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2281253610296</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.182370079587545</v>
+        <v>0.1877016562832042</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2724327506561628</v>
+        <v>0.2758335514382099</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>56</v>
@@ -4299,19 +4299,19 @@
         <v>57797</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>45410</v>
+        <v>46148</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>73319</v>
+        <v>73316</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2111579557965316</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1659002399320703</v>
+        <v>0.1685993738346346</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2678657956780852</v>
+        <v>0.2678551832464454</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>131</v>
@@ -4320,19 +4320,19 @@
         <v>136315</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>116273</v>
+        <v>115350</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>158550</v>
+        <v>158069</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2206091884166551</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1881737806046454</v>
+        <v>0.1866804456654301</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2565937948559945</v>
+        <v>0.255816283595334</v>
       </c>
     </row>
     <row r="15">
@@ -4424,19 +4424,19 @@
         <v>46291</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>33743</v>
+        <v>34583</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>60738</v>
+        <v>62241</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1007231463276565</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.07341975061471295</v>
+        <v>0.07524713562918069</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1321580234402891</v>
+        <v>0.1354273252698322</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>33</v>
@@ -4445,19 +4445,19 @@
         <v>33934</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>23762</v>
+        <v>24027</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>46108</v>
+        <v>46816</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1069064694811228</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.07486030892081463</v>
+        <v>0.07569498159445016</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1452628399108054</v>
+        <v>0.1474923646675491</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>76</v>
@@ -4466,19 +4466,19 @@
         <v>80225</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>64764</v>
+        <v>64445</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>100162</v>
+        <v>99782</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1032491021908755</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0833518728819156</v>
+        <v>0.08294075126699148</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1289084708485742</v>
+        <v>0.1284197597848335</v>
       </c>
     </row>
     <row r="17">
@@ -4495,19 +4495,19 @@
         <v>64530</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>50389</v>
+        <v>51507</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>82824</v>
+        <v>80440</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1404086807443435</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1096385080417807</v>
+        <v>0.1120719359632574</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1802138054876881</v>
+        <v>0.1750252522881172</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>49</v>
@@ -4516,19 +4516,19 @@
         <v>46421</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>35237</v>
+        <v>35861</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>58578</v>
+        <v>60078</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.146246858503076</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1110142547881337</v>
+        <v>0.1129799183195432</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1845487408744776</v>
+        <v>0.1892720013011957</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>111</v>
@@ -4537,19 +4537,19 @@
         <v>110951</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>93997</v>
+        <v>92302</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>132380</v>
+        <v>129749</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1427936408983213</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.120973900810802</v>
+        <v>0.1187921854657397</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.170373236935426</v>
+        <v>0.1669874161958009</v>
       </c>
     </row>
     <row r="18">
@@ -4566,19 +4566,19 @@
         <v>130670</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>112169</v>
+        <v>110322</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>149969</v>
+        <v>152965</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.284320241026085</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2440651710477757</v>
+        <v>0.2400459482468412</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.326311992443918</v>
+        <v>0.3328316185198814</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>84</v>
@@ -4587,19 +4587,19 @@
         <v>80619</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>65850</v>
+        <v>67047</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>96852</v>
+        <v>96379</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2539873010554352</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2074586778398183</v>
+        <v>0.2112296564840443</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3051297050234295</v>
+        <v>0.3036368646489163</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>209</v>
@@ -4608,19 +4608,19 @@
         <v>211289</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>187411</v>
+        <v>188183</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>235762</v>
+        <v>237121</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2719288997253184</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2411978599063659</v>
+        <v>0.2421917005208117</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3034252018211283</v>
+        <v>0.3051750854387576</v>
       </c>
     </row>
     <row r="19">
@@ -4637,19 +4637,19 @@
         <v>97291</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>80725</v>
+        <v>79183</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>115971</v>
+        <v>116104</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2116914785546998</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1756473705150478</v>
+        <v>0.1722909884360348</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2523368120407488</v>
+        <v>0.2526264429968263</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>73</v>
@@ -4658,19 +4658,19 @@
         <v>73990</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>60885</v>
+        <v>60540</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>91365</v>
+        <v>90779</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2331030209452999</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1918169119839844</v>
+        <v>0.1907300437482928</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2878416432381934</v>
+        <v>0.2859950076752003</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>165</v>
@@ -4679,19 +4679,19 @@
         <v>171281</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>148359</v>
+        <v>150579</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>193694</v>
+        <v>196461</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.220438330320288</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1909383453255782</v>
+        <v>0.1937946555990825</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2492834713205649</v>
+        <v>0.252845525307439</v>
       </c>
     </row>
     <row r="20">
@@ -4708,19 +4708,19 @@
         <v>120806</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>102962</v>
+        <v>102828</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>141399</v>
+        <v>141261</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2628564533472152</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2240310701413192</v>
+        <v>0.2237398175851788</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3076638952188543</v>
+        <v>0.3073639546703274</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>80</v>
@@ -4729,19 +4729,19 @@
         <v>82450</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>68023</v>
+        <v>67816</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>98302</v>
+        <v>99217</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2597563500150661</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.214304592296556</v>
+        <v>0.2136501530310584</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3096970035465998</v>
+        <v>0.3125781061473429</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>195</v>
@@ -4750,19 +4750,19 @@
         <v>203256</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>180760</v>
+        <v>179197</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>228100</v>
+        <v>230591</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2615900268651969</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2326376610541567</v>
+        <v>0.2306260452310823</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2935640304028834</v>
+        <v>0.2967705386800541</v>
       </c>
     </row>
     <row r="21">
@@ -4854,19 +4854,19 @@
         <v>31164</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>20993</v>
+        <v>21469</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>45223</v>
+        <v>44302</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.08474715989421906</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.05708738941069975</v>
+        <v>0.05838400061810441</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1229788215055549</v>
+        <v>0.1204737789994772</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>25</v>
@@ -4875,19 +4875,19 @@
         <v>28415</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>18653</v>
+        <v>19202</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>41536</v>
+        <v>40395</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1168761457936185</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.07672356326653844</v>
+        <v>0.07898298490016252</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1708483921926133</v>
+        <v>0.1661533570119036</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>54</v>
@@ -4896,19 +4896,19 @@
         <v>59579</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>45894</v>
+        <v>45291</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>75150</v>
+        <v>76419</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.09753456177604682</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.07513120883511241</v>
+        <v>0.07414456995128517</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1230263258265473</v>
+        <v>0.1251037346994226</v>
       </c>
     </row>
     <row r="23">
@@ -4925,19 +4925,19 @@
         <v>47647</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>36184</v>
+        <v>36016</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>63326</v>
+        <v>61147</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.129571104092478</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.09839830936847692</v>
+        <v>0.09794214117907561</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1722094269171335</v>
+        <v>0.1662845201005074</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>36</v>
@@ -4946,19 +4946,19 @@
         <v>39805</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>28634</v>
+        <v>28284</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>52458</v>
+        <v>52782</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.163728202075705</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1177763449493823</v>
+        <v>0.1163384731494947</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.215772776883229</v>
+        <v>0.2171057124374504</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>79</v>
@@ -4967,19 +4967,19 @@
         <v>87452</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>70260</v>
+        <v>70568</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>107070</v>
+        <v>106637</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.143165698717908</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1150202765568831</v>
+        <v>0.1155255147772879</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1752819293460612</v>
+        <v>0.1745728376938168</v>
       </c>
     </row>
     <row r="24">
@@ -4996,19 +4996,19 @@
         <v>89769</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>72566</v>
+        <v>72603</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>107201</v>
+        <v>108018</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2441177560756159</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1973369286567849</v>
+        <v>0.1974378944057735</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2915217365478052</v>
+        <v>0.2937435402458581</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>59</v>
@@ -5017,19 +5017,19 @@
         <v>63620</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>51662</v>
+        <v>49711</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>79692</v>
+        <v>79241</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2616847385700866</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.21249671087102</v>
+        <v>0.2044739666024799</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3277897864493209</v>
+        <v>0.3259360621062187</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>139</v>
@@ -5038,19 +5038,19 @@
         <v>153389</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>131919</v>
+        <v>134149</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>176393</v>
+        <v>178757</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2511094509181234</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2159605821098307</v>
+        <v>0.2196119757250852</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2887679204978686</v>
+        <v>0.2926388207850704</v>
       </c>
     </row>
     <row r="25">
@@ -5067,19 +5067,19 @@
         <v>95693</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>79938</v>
+        <v>78689</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>115097</v>
+        <v>115561</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2602272209486626</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.217382470650564</v>
+        <v>0.2139864122342782</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3129945632066468</v>
+        <v>0.3142556686690553</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>54</v>
@@ -5088,19 +5088,19 @@
         <v>57332</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>44564</v>
+        <v>45089</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>71889</v>
+        <v>70862</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2358182327201683</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1833010393440988</v>
+        <v>0.1854605735930245</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2956965866804541</v>
+        <v>0.2914718653372961</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>141</v>
@@ -5109,19 +5109,19 @@
         <v>153024</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>133797</v>
+        <v>129651</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>176554</v>
+        <v>175705</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2505123938768131</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2190361054559906</v>
+        <v>0.2122481914900987</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2890313477740341</v>
+        <v>0.287642233460613</v>
       </c>
     </row>
     <row r="26">
@@ -5138,19 +5138,19 @@
         <v>103455</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>86886</v>
+        <v>84833</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>123935</v>
+        <v>121397</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2813367589890244</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2362775744191996</v>
+        <v>0.2306949761269452</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3370293492893794</v>
+        <v>0.3301267640311378</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>49</v>
@@ -5159,19 +5159,19 @@
         <v>53946</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>40517</v>
+        <v>42543</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>68356</v>
+        <v>70621</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2218926808404216</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1666537355453049</v>
+        <v>0.1749897874944483</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2811658084011707</v>
+        <v>0.2904802299573715</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>141</v>
@@ -5180,19 +5180,19 @@
         <v>157402</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>135404</v>
+        <v>136294</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>181085</v>
+        <v>179199</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2576778947111087</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2216656664748963</v>
+        <v>0.2231238466280561</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2964492405842477</v>
+        <v>0.2933626921501762</v>
       </c>
     </row>
     <row r="27">
@@ -5284,19 +5284,19 @@
         <v>15356</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>8881</v>
+        <v>9063</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>25361</v>
+        <v>25031</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.09265604810401007</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.05358952679649618</v>
+        <v>0.054685137269696</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1530292985441323</v>
+        <v>0.1510364449283648</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>15</v>
@@ -5305,19 +5305,19 @@
         <v>17737</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>10386</v>
+        <v>10859</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>27044</v>
+        <v>28082</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1675172824759833</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.09809184965021782</v>
+        <v>0.1025614018288309</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2554277332123873</v>
+        <v>0.2652317942660569</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>28</v>
@@ -5326,19 +5326,19 @@
         <v>33092</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>22823</v>
+        <v>23154</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>45471</v>
+        <v>47410</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1218389181848356</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.08403091172440923</v>
+        <v>0.0852470902550805</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1674141823899448</v>
+        <v>0.1745532564906078</v>
       </c>
     </row>
     <row r="29">
@@ -5355,19 +5355,19 @@
         <v>15496</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>8940</v>
+        <v>8811</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>24665</v>
+        <v>23688</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.0935010946542577</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.05394246204951776</v>
+        <v>0.05316792868034106</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1488289705665912</v>
+        <v>0.1429345849925524</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>16</v>
@@ -5376,19 +5376,19 @@
         <v>19181</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>11759</v>
+        <v>11738</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>28876</v>
+        <v>29074</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1811610669894161</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1110617383384776</v>
+        <v>0.1108657458152717</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2727301260799677</v>
+        <v>0.2746004769570227</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>30</v>
@@ -5397,19 +5397,19 @@
         <v>34677</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>24255</v>
+        <v>24191</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>47842</v>
+        <v>47542</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.12767324804455</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.08930135775644722</v>
+        <v>0.08906652513637739</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1761457599141738</v>
+        <v>0.1750407860849613</v>
       </c>
     </row>
     <row r="30">
@@ -5426,19 +5426,19 @@
         <v>46610</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>36259</v>
+        <v>34845</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>60467</v>
+        <v>59665</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2812485098220123</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2187915155662474</v>
+        <v>0.2102569328371914</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3648597524393712</v>
+        <v>0.3600209800834673</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>21</v>
@@ -5447,19 +5447,19 @@
         <v>24905</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>16875</v>
+        <v>16968</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>34708</v>
+        <v>35518</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.235224536037345</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1593798634131454</v>
+        <v>0.1602580363309104</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3278038189835124</v>
+        <v>0.3354568476315852</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>61</v>
@@ -5468,19 +5468,19 @@
         <v>71516</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>56359</v>
+        <v>56785</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>88316</v>
+        <v>87242</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2633071592841951</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2075029614066935</v>
+        <v>0.2090712642103001</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3251642876072323</v>
+        <v>0.321207872199861</v>
       </c>
     </row>
     <row r="31">
@@ -5497,19 +5497,19 @@
         <v>29689</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>20418</v>
+        <v>20555</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>42421</v>
+        <v>41477</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1791453467997594</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1232032823869905</v>
+        <v>0.1240295595977507</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2559689502831128</v>
+        <v>0.2502745864835255</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>17</v>
@@ -5518,19 +5518,19 @@
         <v>18669</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>11841</v>
+        <v>11673</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>27781</v>
+        <v>28397</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1763247644284114</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1118342994743899</v>
+        <v>0.1102531030542423</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2623849476632024</v>
+        <v>0.2682057125222687</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>43</v>
@@ -5539,19 +5539,19 @@
         <v>48358</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>35884</v>
+        <v>35453</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>62802</v>
+        <v>62375</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1780458099087924</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1321190512816614</v>
+        <v>0.1305299750559431</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2312250790242537</v>
+        <v>0.2296516488727161</v>
       </c>
     </row>
     <row r="32">
@@ -5568,19 +5568,19 @@
         <v>58576</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>47164</v>
+        <v>46997</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>71983</v>
+        <v>73299</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.3534490006199604</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.2845917479053553</v>
+        <v>0.2835838819722409</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.4343501007122518</v>
+        <v>0.4422921324536405</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>21</v>
@@ -5589,19 +5589,19 @@
         <v>25387</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>16799</v>
+        <v>17168</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>35949</v>
+        <v>36872</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.2397723500688442</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1586622452187432</v>
+        <v>0.1621501513208563</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.3395330430280291</v>
+        <v>0.3482431701112513</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>74</v>
@@ -5610,19 +5610,19 @@
         <v>83963</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>68563</v>
+        <v>69331</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>100593</v>
+        <v>101757</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.309134864577627</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.2524364191766406</v>
+        <v>0.2552638538399763</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.3703650001472624</v>
+        <v>0.3746490372480413</v>
       </c>
     </row>
     <row r="33">
@@ -5714,19 +5714,19 @@
         <v>135414</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>113787</v>
+        <v>113524</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>159998</v>
+        <v>159135</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.09560859630778333</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.08033867189712543</v>
+        <v>0.08015320157799609</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1129657734908821</v>
+        <v>0.1123568478719251</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>114</v>
@@ -5735,19 +5735,19 @@
         <v>119970</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>101019</v>
+        <v>100701</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>143146</v>
+        <v>142373</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1162519165793094</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.09788857024152436</v>
+        <v>0.09758042548393267</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.1387094015950927</v>
+        <v>0.137961013437099</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>238</v>
@@ -5756,19 +5756,19 @@
         <v>255384</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>228111</v>
+        <v>227106</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>287232</v>
+        <v>287344</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1043098859139086</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.09317042500768982</v>
+        <v>0.09275988660176217</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1173182615735414</v>
+        <v>0.1173637742131466</v>
       </c>
     </row>
     <row r="35">
@@ -5785,19 +5785,19 @@
         <v>194496</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>169006</v>
+        <v>170405</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>223786</v>
+        <v>224635</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1373231902961236</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.119326315643979</v>
+        <v>0.1203139885982938</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1580031602093279</v>
+        <v>0.1586031114324928</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>155</v>
@@ -5806,19 +5806,19 @@
         <v>157024</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>134361</v>
+        <v>135235</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>180332</v>
+        <v>181168</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1521575090823673</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.130197519875474</v>
+        <v>0.1310441243980009</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1747437356600756</v>
+        <v>0.1755533816710771</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>338</v>
@@ -5827,19 +5827,19 @@
         <v>351520</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>317672</v>
+        <v>319884</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>386164</v>
+        <v>389106</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1435759491629582</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1297509604409512</v>
+        <v>0.1306546818640814</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1577261566333893</v>
+        <v>0.1589278693809477</v>
       </c>
     </row>
     <row r="36">
@@ -5856,19 +5856,19 @@
         <v>396121</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>361457</v>
+        <v>363342</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>431677</v>
+        <v>435729</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2796801439401208</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2552057843563842</v>
+        <v>0.256536487177198</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.3047838513065165</v>
+        <v>0.3076451323028218</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>273</v>
@@ -5877,19 +5877,19 @@
         <v>273919</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>246091</v>
+        <v>247248</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>301388</v>
+        <v>306852</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.2654304884971297</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.2384647189386752</v>
+        <v>0.2395857188060451</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2920474812662015</v>
+        <v>0.297342248589875</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>639</v>
@@ -5898,19 +5898,19 @@
         <v>670041</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>625384</v>
+        <v>622649</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>713358</v>
+        <v>711832</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.2736738243575104</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2554340905742915</v>
+        <v>0.254317195702238</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2913665751450307</v>
+        <v>0.2907432131192717</v>
       </c>
     </row>
     <row r="37">
@@ -5927,19 +5927,19 @@
         <v>319024</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>288166</v>
+        <v>290682</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>353448</v>
+        <v>352353</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.2252459535106222</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.2034585079881952</v>
+        <v>0.2052349759058956</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2495505276002287</v>
+        <v>0.2487773756758838</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>239</v>
@@ -5948,19 +5948,19 @@
         <v>241341</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>214809</v>
+        <v>215093</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>269338</v>
+        <v>267545</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2338612157605934</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.2081517794248036</v>
+        <v>0.2084275357426549</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2609910365694293</v>
+        <v>0.2592535213226542</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>539</v>
@@ -5969,19 +5969,19 @@
         <v>560365</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>520472</v>
+        <v>521660</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>603975</v>
+        <v>605025</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.2288773408496598</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.2125833053902186</v>
+        <v>0.2130689029025283</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2466895650310997</v>
+        <v>0.2471186341380703</v>
       </c>
     </row>
     <row r="38">
@@ -5998,19 +5998,19 @@
         <v>371282</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>338142</v>
+        <v>337651</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>405560</v>
+        <v>406789</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.2621421159453501</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.2387438008944741</v>
+        <v>0.2383970651318025</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.2863444081615271</v>
+        <v>0.2872121426571494</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>227</v>
@@ -6019,19 +6019,19 @@
         <v>239728</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>213713</v>
+        <v>213823</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>269236</v>
+        <v>270235</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.2322988700806002</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.2070900199847099</v>
+        <v>0.2071961352681761</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.2608923195213965</v>
+        <v>0.2618599208364539</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>571</v>
@@ -6040,19 +6040,19 @@
         <v>611010</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>566618</v>
+        <v>567501</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>657290</v>
+        <v>655379</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.249562999715963</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.2314314612346433</v>
+        <v>0.2317921607646258</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.2684659037273501</v>
+        <v>0.2676855517162912</v>
       </c>
     </row>
     <row r="39">
@@ -6388,7 +6388,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>17733</v>
+        <v>19416</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2290179647939078</v>
@@ -6397,7 +6397,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5890408760153379</v>
+        <v>0.6449456815375734</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>4</v>
@@ -6406,19 +6406,19 @@
         <v>5354</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1541</v>
+        <v>1258</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>12566</v>
+        <v>11037</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1900687688220457</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0546979447438742</v>
+        <v>0.04467545033541033</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4461391768164636</v>
+        <v>0.3918290668436653</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>6</v>
@@ -6427,19 +6427,19 @@
         <v>12248</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>5005</v>
+        <v>4743</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>24573</v>
+        <v>24735</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2101910260112171</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.08589796701159388</v>
+        <v>0.08139852605633772</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4217046127497866</v>
+        <v>0.4244806905512336</v>
       </c>
     </row>
     <row r="5">
@@ -6459,7 +6459,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>12975</v>
+        <v>12341</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.130063398279831</v>
@@ -6468,7 +6468,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4309851529130052</v>
+        <v>0.4099401109905357</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>5</v>
@@ -6477,19 +6477,19 @@
         <v>6142</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>2136</v>
+        <v>2199</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>12230</v>
+        <v>12031</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2180468125594458</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.07581651072654458</v>
+        <v>0.07807130979163372</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4341887112345275</v>
+        <v>0.4271409064271292</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>7</v>
@@ -6498,19 +6498,19 @@
         <v>10057</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>4471</v>
+        <v>4256</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>20322</v>
+        <v>19955</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1725920901617146</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.07672544068145201</v>
+        <v>0.0730295737756444</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3487503677570301</v>
+        <v>0.3424430688019842</v>
       </c>
     </row>
     <row r="6">
@@ -6527,19 +6527,19 @@
         <v>10515</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3672</v>
+        <v>3403</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>20161</v>
+        <v>20075</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3492919108305066</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1219595838828714</v>
+        <v>0.1130476314134077</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.6697029910005391</v>
+        <v>0.6668340748304107</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>3</v>
@@ -6548,19 +6548,19 @@
         <v>4206</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>997</v>
+        <v>943</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>11657</v>
+        <v>10975</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1493313150238548</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.03540407541542268</v>
+        <v>0.03346264966639882</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4138687757442223</v>
+        <v>0.3896294432021288</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>8</v>
@@ -6569,19 +6569,19 @@
         <v>14721</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>6648</v>
+        <v>6868</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>25354</v>
+        <v>27509</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.252636619180279</v>
+        <v>0.2526366191802791</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1140858000005518</v>
+        <v>0.1178553400586879</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.4351090208906066</v>
+        <v>0.4720789995361536</v>
       </c>
     </row>
     <row r="7">
@@ -6601,7 +6601,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>9937</v>
+        <v>8359</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.06133544768718187</v>
@@ -6610,7 +6610,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3300886662911386</v>
+        <v>0.2776739561735738</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>4</v>
@@ -6619,19 +6619,19 @@
         <v>6010</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1769</v>
+        <v>1774</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>13137</v>
+        <v>12858</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.2133790837313353</v>
+        <v>0.2133790837313352</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06281288312849827</v>
+        <v>0.0629990530098415</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4664108502914773</v>
+        <v>0.456504662632318</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>5</v>
@@ -6640,19 +6640,19 @@
         <v>7857</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>2706</v>
+        <v>2827</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>17111</v>
+        <v>16069</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1348290373923184</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04644097216526626</v>
+        <v>0.04851058999904784</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2936425555581474</v>
+        <v>0.2757717831118994</v>
       </c>
     </row>
     <row r="8">
@@ -6669,19 +6669,19 @@
         <v>6933</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1280</v>
+        <v>1250</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>18810</v>
+        <v>18332</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2302912784085726</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.04253193778684849</v>
+        <v>0.04151795583520705</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.624797085017977</v>
+        <v>0.6089503725529826</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>3</v>
@@ -6690,19 +6690,19 @@
         <v>6455</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1787</v>
+        <v>1807</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>15107</v>
+        <v>15672</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2291740198633185</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.06344381835058845</v>
+        <v>0.06414956523626712</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5363481149312446</v>
+        <v>0.5563908289872525</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>6</v>
@@ -6711,19 +6711,19 @@
         <v>13388</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>5792</v>
+        <v>4868</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>25703</v>
+        <v>25509</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.2297512272544709</v>
+        <v>0.229751227254471</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.09939409209186706</v>
+        <v>0.08354616864027226</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4410984628856819</v>
+        <v>0.4377696382403811</v>
       </c>
     </row>
     <row r="9">
@@ -6815,19 +6815,19 @@
         <v>16567</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>8684</v>
+        <v>8299</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>28304</v>
+        <v>28285</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.1397538673891903</v>
+        <v>0.1397538673891904</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0732593933345457</v>
+        <v>0.07000967991969742</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2387669702345039</v>
+        <v>0.2386103461431732</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>23</v>
@@ -6836,19 +6836,19 @@
         <v>24402</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>16392</v>
+        <v>16908</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>33876</v>
+        <v>34429</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2607614497713</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1751685034064424</v>
+        <v>0.1806835015350258</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3620046604176214</v>
+        <v>0.3679152709179871</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>33</v>
@@ -6857,19 +6857,19 @@
         <v>40968</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>27842</v>
+        <v>28872</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>56291</v>
+        <v>55680</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1931378489348854</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1312571488393511</v>
+        <v>0.1361095719285561</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2653712278894941</v>
+        <v>0.2624928217587296</v>
       </c>
     </row>
     <row r="11">
@@ -6886,19 +6886,19 @@
         <v>22685</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>11623</v>
+        <v>11535</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>34553</v>
+        <v>35765</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1913682245358587</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.0980503954456787</v>
+        <v>0.09730710285338624</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2914872212255615</v>
+        <v>0.3017068085911092</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>15</v>
@@ -6907,19 +6907,19 @@
         <v>16501</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>9928</v>
+        <v>10136</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>25714</v>
+        <v>25332</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1763360125573021</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1060899797192202</v>
+        <v>0.1083186075675322</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2747875638707452</v>
+        <v>0.2707020193200414</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>28</v>
@@ -6928,19 +6928,19 @@
         <v>39186</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>26683</v>
+        <v>26079</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>55222</v>
+        <v>53989</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1847365795508344</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1257905323835376</v>
+        <v>0.122942792114195</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2603338612516449</v>
+        <v>0.2545207311218874</v>
       </c>
     </row>
     <row r="12">
@@ -6957,19 +6957,19 @@
         <v>40851</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>28675</v>
+        <v>28465</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>54432</v>
+        <v>55196</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.3446122060092136</v>
+        <v>0.3446122060092137</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2419023054373695</v>
+        <v>0.2401296516267621</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4591815314824391</v>
+        <v>0.4656265496476287</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>24</v>
@@ -6978,19 +6978,19 @@
         <v>23114</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>15443</v>
+        <v>16446</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>31168</v>
+        <v>33198</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2469985641544945</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1650292202637058</v>
+        <v>0.1757469935756187</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3330676246918117</v>
+        <v>0.3547578112702756</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>52</v>
@@ -6999,19 +6999,19 @@
         <v>63965</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>48220</v>
+        <v>49327</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>79590</v>
+        <v>79680</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.301548748721674</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2273227440089328</v>
+        <v>0.2325439561247757</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3752104613349804</v>
+        <v>0.3756361935193762</v>
       </c>
     </row>
     <row r="13">
@@ -7028,19 +7028,19 @@
         <v>14075</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>6746</v>
+        <v>6592</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>26142</v>
+        <v>25187</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1187381636271366</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05691067730326232</v>
+        <v>0.05561038729781358</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2205290105540832</v>
+        <v>0.2124774556065482</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>19</v>
@@ -7049,19 +7049,19 @@
         <v>19556</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>12363</v>
+        <v>12518</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>28404</v>
+        <v>29344</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.208980064307199</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1321154003239537</v>
+        <v>0.1337735946465814</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3035303089317813</v>
+        <v>0.313570782672279</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>27</v>
@@ -7070,19 +7070,19 @@
         <v>33632</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>23122</v>
+        <v>22034</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>47902</v>
+        <v>45973</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1585494867336557</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1090027172874596</v>
+        <v>0.1038763088522797</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2258244413599406</v>
+        <v>0.2167328007765188</v>
       </c>
     </row>
     <row r="14">
@@ -7099,19 +7099,19 @@
         <v>24363</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>12976</v>
+        <v>12420</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>39764</v>
+        <v>38706</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.2055275384386006</v>
+        <v>0.2055275384386007</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1094645781137168</v>
+        <v>0.1047775454601462</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.335440999827586</v>
+        <v>0.3265226294300046</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>7</v>
@@ -7120,19 +7120,19 @@
         <v>10006</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>4946</v>
+        <v>4340</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>19472</v>
+        <v>19464</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1069239092097044</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.05284984554495283</v>
+        <v>0.04637616726482039</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2080826533678323</v>
+        <v>0.2079988460683132</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>18</v>
@@ -7141,19 +7141,19 @@
         <v>34369</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>21564</v>
+        <v>21148</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>52708</v>
+        <v>50274</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.1620273360589506</v>
+        <v>0.1620273360589505</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1016576251605234</v>
+        <v>0.09969654327183372</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2484803961796007</v>
+        <v>0.2370077318164408</v>
       </c>
     </row>
     <row r="15">
@@ -7245,19 +7245,19 @@
         <v>22126</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>14411</v>
+        <v>13951</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>34501</v>
+        <v>32721</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.1827925509407285</v>
+        <v>0.1827925509407284</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.119060927429</v>
+        <v>0.1152568587407175</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2850334157969796</v>
+        <v>0.2703267076125374</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>31</v>
@@ -7266,19 +7266,19 @@
         <v>24710</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>17165</v>
+        <v>17780</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>32510</v>
+        <v>32375</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.2389840407919634</v>
+        <v>0.2389840407919633</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1660179951871629</v>
+        <v>0.1719650899075996</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3144283306966467</v>
+        <v>0.3131198369079526</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>48</v>
@@ -7287,19 +7287,19 @@
         <v>46835</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>36013</v>
+        <v>35593</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>60579</v>
+        <v>59754</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2086791292510206</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1604606267371186</v>
+        <v>0.1585889506007513</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2699133706822677</v>
+        <v>0.2662385664508206</v>
       </c>
     </row>
     <row r="17">
@@ -7316,19 +7316,19 @@
         <v>14541</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>8152</v>
+        <v>7552</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>23910</v>
+        <v>23912</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1201285055639621</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.0673449827870605</v>
+        <v>0.06239326716543476</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1975387504894703</v>
+        <v>0.1975474322898832</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>14</v>
@@ -7337,19 +7337,19 @@
         <v>11101</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>6193</v>
+        <v>6153</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>16919</v>
+        <v>17216</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1073651803034883</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.05989519241904129</v>
+        <v>0.0595133372563429</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1636367152242381</v>
+        <v>0.1665057891578124</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>26</v>
@@ -7358,19 +7358,19 @@
         <v>25642</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>16821</v>
+        <v>17326</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>35564</v>
+        <v>35478</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1142486326556319</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.07494847640835864</v>
+        <v>0.07719971906833432</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1584566701652496</v>
+        <v>0.1580745597291261</v>
       </c>
     </row>
     <row r="18">
@@ -7387,19 +7387,19 @@
         <v>26392</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>17094</v>
+        <v>17642</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>37252</v>
+        <v>37093</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.2180386248354629</v>
+        <v>0.2180386248354628</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1412199459941157</v>
+        <v>0.1457491155589989</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.307758295031</v>
+        <v>0.3064505100393783</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>35</v>
@@ -7408,19 +7408,19 @@
         <v>25065</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>18297</v>
+        <v>17998</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>32715</v>
+        <v>31958</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2424246607009853</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1769652702997351</v>
+        <v>0.1740719487279822</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3164126783174482</v>
+        <v>0.3090903270663023</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>58</v>
@@ -7429,19 +7429,19 @@
         <v>51457</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>39908</v>
+        <v>39473</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>65454</v>
+        <v>65582</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.229272906552885</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1778144543769209</v>
+        <v>0.1758741374075233</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2916355260484453</v>
+        <v>0.2922078138458331</v>
       </c>
     </row>
     <row r="19">
@@ -7458,19 +7458,19 @@
         <v>28265</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>19324</v>
+        <v>19029</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>38541</v>
+        <v>39605</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2335114533044887</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1596431232016738</v>
+        <v>0.1572131748391801</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3184123219156172</v>
+        <v>0.3272044076630703</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>22</v>
@@ -7479,19 +7479,19 @@
         <v>15679</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>10417</v>
+        <v>10019</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>24109</v>
+        <v>22695</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.1516458512622331</v>
+        <v>0.151645851262233</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1007510418188188</v>
+        <v>0.09689674744542361</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2331766434697887</v>
+        <v>0.2194961961716639</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>47</v>
@@ -7500,19 +7500,19 @@
         <v>43944</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>32774</v>
+        <v>33074</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>57029</v>
+        <v>57706</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1957971957933134</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1460283603069684</v>
+        <v>0.1473637549948154</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2540976326191109</v>
+        <v>0.2571134203720292</v>
       </c>
     </row>
     <row r="20">
@@ -7529,19 +7529,19 @@
         <v>29719</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>20557</v>
+        <v>20463</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>40189</v>
+        <v>40430</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2455288653553579</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1698316498299085</v>
+        <v>0.1690559663039825</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3320264212102492</v>
+        <v>0.3340135398671331</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>35</v>
@@ -7550,19 +7550,19 @@
         <v>26839</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>19360</v>
+        <v>19355</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>34734</v>
+        <v>34506</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.25958026694133</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1872454764890065</v>
+        <v>0.1871949799538341</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3359324399271811</v>
+        <v>0.3337337789796589</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>61</v>
@@ -7571,19 +7571,19 @@
         <v>56559</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>45613</v>
+        <v>44317</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>70257</v>
+        <v>69955</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.252002135747149</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.20323226014273</v>
+        <v>0.1974597369757219</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3130385786233287</v>
+        <v>0.3116924782421855</v>
       </c>
     </row>
     <row r="21">
@@ -7675,19 +7675,19 @@
         <v>20706</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>12494</v>
+        <v>13418</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>30857</v>
+        <v>30381</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1509511910960056</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.09107968694618909</v>
+        <v>0.09781833836167152</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2249534631269808</v>
+        <v>0.221482651274318</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>36</v>
@@ -7696,19 +7696,19 @@
         <v>25529</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>19182</v>
+        <v>19009</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>33681</v>
+        <v>33271</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.2151563606575349</v>
+        <v>0.215156360657535</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1616665196251639</v>
+        <v>0.1602017319145297</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2838593191378334</v>
+        <v>0.2804049005546204</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>54</v>
@@ -7717,19 +7717,19 @@
         <v>46235</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>35840</v>
+        <v>35471</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>58779</v>
+        <v>58632</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1807300242477821</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1400973032221101</v>
+        <v>0.1386546968812121</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2297634193036038</v>
+        <v>0.2291866378183738</v>
       </c>
     </row>
     <row r="23">
@@ -7746,19 +7746,19 @@
         <v>12791</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>7322</v>
+        <v>6671</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>20735</v>
+        <v>21937</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.09324504979811576</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.05337920208537885</v>
+        <v>0.04863484498233328</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1511599941028832</v>
+        <v>0.1599251372777176</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>17</v>
@@ -7767,19 +7767,19 @@
         <v>11121</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>6872</v>
+        <v>6169</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>17134</v>
+        <v>16815</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.0937265079126581</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.05791648904057158</v>
+        <v>0.05198865142736171</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1444054958058081</v>
+        <v>0.1417118378873985</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>29</v>
@@ -7788,19 +7788,19 @@
         <v>23912</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>15826</v>
+        <v>16906</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>33298</v>
+        <v>34123</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.0934683536373617</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.06186241152222409</v>
+        <v>0.06608298436363814</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1301588873965485</v>
+        <v>0.133383096488084</v>
       </c>
     </row>
     <row r="24">
@@ -7817,19 +7817,19 @@
         <v>38236</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>28549</v>
+        <v>29324</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>49489</v>
+        <v>49770</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2787484436831405</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2081286918905416</v>
+        <v>0.2137749929510398</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3607816612263163</v>
+        <v>0.362829738365004</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>61</v>
@@ -7838,19 +7838,19 @@
         <v>37110</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>29001</v>
+        <v>29668</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>45919</v>
+        <v>44649</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.3127609079178479</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2444194858770103</v>
+        <v>0.2500357947964516</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3869994984265876</v>
+        <v>0.3762980336162271</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>98</v>
@@ -7859,19 +7859,19 @@
         <v>75347</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>62787</v>
+        <v>62330</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>89319</v>
+        <v>89456</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2945236764945028</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2454312809067605</v>
+        <v>0.2436448650570722</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3491403710515044</v>
+        <v>0.3496752197036743</v>
       </c>
     </row>
     <row r="25">
@@ -7888,19 +7888,19 @@
         <v>25038</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>16972</v>
+        <v>16767</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>34805</v>
+        <v>33769</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1825271936979785</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1237257161559056</v>
+        <v>0.1222341719346352</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2537314111612222</v>
+        <v>0.246182959226619</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>33</v>
@@ -7909,19 +7909,19 @@
         <v>20073</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>14114</v>
+        <v>14069</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>27237</v>
+        <v>26716</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.1691766176591019</v>
+        <v>0.169176617659102</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1189545706366868</v>
+        <v>0.1185708123980928</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2295512867419436</v>
+        <v>0.2251580009993852</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>60</v>
@@ -7930,19 +7930,19 @@
         <v>45111</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>35170</v>
+        <v>34725</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>56791</v>
+        <v>57328</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1763350976556058</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1374767602994015</v>
+        <v>0.1357356830059951</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2219924424525546</v>
+        <v>0.2240920941359303</v>
       </c>
     </row>
     <row r="26">
@@ -7959,19 +7959,19 @@
         <v>40401</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>29701</v>
+        <v>29894</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>53458</v>
+        <v>52161</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.2945281217247598</v>
+        <v>0.2945281217247597</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2165271221226794</v>
+        <v>0.2179288328562728</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3897176217546912</v>
+        <v>0.3802578218385054</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>36</v>
@@ -7980,19 +7980,19 @@
         <v>24820</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>17374</v>
+        <v>18340</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>32339</v>
+        <v>33129</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.2091796058528571</v>
+        <v>0.209179605852857</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.146424256914683</v>
+        <v>0.1545691931499999</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.272548993750578</v>
+        <v>0.2792090141317573</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>72</v>
@@ -8001,19 +8001,19 @@
         <v>65221</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>52954</v>
+        <v>53001</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>80178</v>
+        <v>79578</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2549428479647476</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2069912234170274</v>
+        <v>0.2071776863099157</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3134081329905924</v>
+        <v>0.3110656090807395</v>
       </c>
     </row>
     <row r="27">
@@ -8105,19 +8105,19 @@
         <v>11487</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>6461</v>
+        <v>6389</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>18689</v>
+        <v>19092</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1714496529167413</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.09642688279835067</v>
+        <v>0.09535735589092789</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2789404352875152</v>
+        <v>0.284960734954039</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>11</v>
@@ -8126,19 +8126,19 @@
         <v>7205</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>4000</v>
+        <v>3858</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>12262</v>
+        <v>11823</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.1755332739306307</v>
+        <v>0.1755332739306306</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.097438767684823</v>
+        <v>0.09397558806889503</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2987192289588186</v>
+        <v>0.2880344307064117</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>24</v>
@@ -8147,19 +8147,19 @@
         <v>18692</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>12360</v>
+        <v>12725</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>26589</v>
+        <v>26648</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1730010462746462</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1143892732906017</v>
+        <v>0.1177697646685084</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2460825268336972</v>
+        <v>0.246631030114645</v>
       </c>
     </row>
     <row r="29">
@@ -8176,19 +8176,19 @@
         <v>8359</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>4062</v>
+        <v>3843</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>14512</v>
+        <v>14155</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.1247607028905776</v>
+        <v>0.1247607028905777</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.06063327724599748</v>
+        <v>0.05735232640255551</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2166022887906075</v>
+        <v>0.211266498321725</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>10</v>
@@ -8197,19 +8197,19 @@
         <v>6206</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3075</v>
+        <v>3295</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>10622</v>
+        <v>10486</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.1511981762478186</v>
+        <v>0.1511981762478185</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.07491482563078657</v>
+        <v>0.08026162044452129</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2587774084876011</v>
+        <v>0.2554615052137388</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>19</v>
@@ -8218,19 +8218,19 @@
         <v>14565</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>8343</v>
+        <v>9299</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>21238</v>
+        <v>22955</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1348044656263239</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.07721364127573307</v>
+        <v>0.08605980243210662</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1965570570705735</v>
+        <v>0.2124554324770352</v>
       </c>
     </row>
     <row r="30">
@@ -8247,19 +8247,19 @@
         <v>17795</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>11522</v>
+        <v>11487</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>24853</v>
+        <v>25962</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2656003178103557</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.171967908132213</v>
+        <v>0.1714506422224208</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.370941702493438</v>
+        <v>0.3874905007866459</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>17</v>
@@ -8268,19 +8268,19 @@
         <v>10751</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>6937</v>
+        <v>6609</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>15985</v>
+        <v>15918</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.2619214820177611</v>
+        <v>0.261921482017761</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1689911908158838</v>
+        <v>0.1609960774496083</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3894178065743465</v>
+        <v>0.3877882531877169</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>36</v>
@@ -8289,19 +8289,19 @@
         <v>28547</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>20947</v>
+        <v>21171</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>37289</v>
+        <v>38271</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2642027049089522</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1938674364149843</v>
+        <v>0.1959430704967882</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3451192225915247</v>
+        <v>0.3542077660509564</v>
       </c>
     </row>
     <row r="31">
@@ -8318,19 +8318,19 @@
         <v>14145</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>8376</v>
+        <v>8569</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>21860</v>
+        <v>21177</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2111216559526884</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1250180117173918</v>
+        <v>0.1278922145218456</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.3262701651807499</v>
+        <v>0.3160816041306579</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>13</v>
@@ -8339,19 +8339,19 @@
         <v>7309</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>4013</v>
+        <v>4140</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>11518</v>
+        <v>11756</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>0.1780511513747863</v>
+        <v>0.1780511513747862</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.09777054556378348</v>
+        <v>0.100856018716628</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2806003637873831</v>
+        <v>0.2864021309468506</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>28</v>
@@ -8360,19 +8360,19 @@
         <v>21454</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>14870</v>
+        <v>15043</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>30167</v>
+        <v>30307</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1985579628552584</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1376218906418901</v>
+        <v>0.139222544269849</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2792021762370376</v>
+        <v>0.2804923139090615</v>
       </c>
     </row>
     <row r="32">
@@ -8389,19 +8389,19 @@
         <v>15214</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>9393</v>
+        <v>8967</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>23109</v>
+        <v>22789</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.2270676704296369</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1401957802336115</v>
+        <v>0.1338356099948582</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.3449077117871504</v>
+        <v>0.3401379480232595</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>15</v>
@@ -8410,19 +8410,19 @@
         <v>9576</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>5846</v>
+        <v>5664</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>14441</v>
+        <v>14224</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.2332959164290035</v>
+        <v>0.2332959164290034</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1424075180820281</v>
+        <v>0.1379737063585607</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.3518115372472451</v>
+        <v>0.3465295905776447</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>31</v>
@@ -8431,19 +8431,19 @@
         <v>24790</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>17364</v>
+        <v>17360</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>33360</v>
+        <v>32778</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.2294338203348193</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1607019371719607</v>
+        <v>0.1606655683970178</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.308748492499817</v>
+        <v>0.3033615924261759</v>
       </c>
     </row>
     <row r="33">
@@ -8535,19 +8535,19 @@
         <v>77780</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>61103</v>
+        <v>61778</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>101758</v>
+        <v>100924</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1641415346642063</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1289486092598574</v>
+        <v>0.1303733121545045</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.2147431801107555</v>
+        <v>0.2129827953681709</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>105</v>
@@ -8556,19 +8556,19 @@
         <v>87199</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>73429</v>
+        <v>71873</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>104243</v>
+        <v>103544</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>0.2265851133788639</v>
+        <v>0.2265851133788638</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.1908028320596464</v>
+        <v>0.1867610451938424</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.2708731201882874</v>
+        <v>0.2690561508986373</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>165</v>
@@ -8577,19 +8577,19 @@
         <v>164979</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>141215</v>
+        <v>141776</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>192100</v>
+        <v>191105</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1921267499182605</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1644515228595634</v>
+        <v>0.1651053388665961</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.223710070289195</v>
+        <v>0.222551791367147</v>
       </c>
     </row>
     <row r="35">
@@ -8606,19 +8606,19 @@
         <v>62290</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>47813</v>
+        <v>45501</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>81466</v>
+        <v>81224</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1314538240896684</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1009017105754045</v>
+        <v>0.0960216248055601</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1719216198801986</v>
+        <v>0.1714105474761637</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>61</v>
@@ -8627,19 +8627,19 @@
         <v>51071</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>39182</v>
+        <v>40963</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>63990</v>
+        <v>64494</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1327073906737373</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1018132245941079</v>
+        <v>0.1064406127725636</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1662755289703565</v>
+        <v>0.167585664211063</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>109</v>
@@ -8648,19 +8648,19 @@
         <v>113362</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>93754</v>
+        <v>94106</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>135841</v>
+        <v>137273</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1320156325480011</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1091808431843485</v>
+        <v>0.109591176868137</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.158193676261848</v>
+        <v>0.1598613412089516</v>
       </c>
     </row>
     <row r="36">
@@ -8677,19 +8677,19 @@
         <v>133789</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>111900</v>
+        <v>113783</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>156680</v>
+        <v>157850</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.28233992407334</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2361456521450453</v>
+        <v>0.240119635130645</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.3306483042769138</v>
+        <v>0.3331170943800891</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>140</v>
@@ -8698,19 +8698,19 @@
         <v>100247</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>85680</v>
+        <v>86243</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>114964</v>
+        <v>115369</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.260488836717339</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.2226370775015964</v>
+        <v>0.2240992408734536</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2987299222137261</v>
+        <v>0.2997826796160937</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>252</v>
@@ -8719,19 +8719,19 @@
         <v>234036</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>209227</v>
+        <v>208169</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>261931</v>
+        <v>266417</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.2725469654412415</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2436546699228113</v>
+        <v>0.2424225956239097</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.3050312715276092</v>
+        <v>0.3102559024785856</v>
       </c>
     </row>
     <row r="37">
@@ -8748,19 +8748,19 @@
         <v>83369</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>65852</v>
+        <v>62960</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>100994</v>
+        <v>100291</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1759367113434804</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1389694525210245</v>
+        <v>0.1328667852212798</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2131303325125473</v>
+        <v>0.2116474678814908</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>91</v>
@@ -8769,19 +8769,19 @@
         <v>68628</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>57676</v>
+        <v>56096</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>85541</v>
+        <v>82715</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1783271496464926</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1498693707816343</v>
+        <v>0.1457645269770713</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2222751438645612</v>
+        <v>0.2149330045153414</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>167</v>
@@ -8790,19 +8790,19 @@
         <v>151997</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>130235</v>
+        <v>129577</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>173627</v>
+        <v>176555</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1770080293530875</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1516655736068612</v>
+        <v>0.15089902350728</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2021976665243776</v>
+        <v>0.2056065352788378</v>
       </c>
     </row>
     <row r="38">
@@ -8819,19 +8819,19 @@
         <v>116630</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>92201</v>
+        <v>94157</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>138647</v>
+        <v>140149</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.246128005829305</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.1945744529856771</v>
+        <v>0.1987024142462878</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.2925920327003452</v>
+        <v>0.2957611273056411</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>96</v>
@@ -8840,19 +8840,19 @@
         <v>77696</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>65009</v>
+        <v>63632</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>94421</v>
+        <v>94599</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.2018915095835673</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.1689245942782702</v>
+        <v>0.1653466220684101</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.2453508410620739</v>
+        <v>0.2458115121113076</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>188</v>
@@ -8861,19 +8861,19 @@
         <v>194326</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>169295</v>
+        <v>169268</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>223041</v>
+        <v>222810</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.2263026227394095</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.1971521142664813</v>
+        <v>0.1971206787217566</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.2597421031718656</v>
+        <v>0.2594738742371416</v>
       </c>
     </row>
     <row r="39">
